--- a/testCase/TestCase.xlsx
+++ b/testCase/TestCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/SeleniumXM/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,7 +102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,12 +149,16 @@
     <t>Test::Demo("Steps01","Steps01")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Safari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +286,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,24 +619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -645,15 +656,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -665,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -698,23 +709,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -731,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -748,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -778,23 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -811,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>

--- a/testCase/TestCase.xlsx
+++ b/testCase/TestCase.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/SeleniumXM/testCase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="13900"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,16 +144,12 @@
     <t>Test::Demo("Steps01","Steps01")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Safari</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,9 +277,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,24 +607,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -656,15 +644,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -676,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -709,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -742,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -759,7 +747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -789,23 +777,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -822,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>

--- a/testCase/TestCase.xlsx
+++ b/testCase/TestCase.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/SeleniumXM/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="680" yWindow="1920" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="TestBaidu" sheetId="13" r:id="rId2"/>
-    <sheet name="Testhao123" sheetId="14" r:id="rId3"/>
+    <sheet name="LoginWeb163" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +73,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Steps01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>Chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试百度搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,51 +101,40 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TestBaidu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test::Demo2("123","456")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开百度首页</t>
+    <t>Steps01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录163web版</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginWeb163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web163Mail::login163Mail("driver","maomingtest","as123456")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制台输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试打开好123网站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testhao123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test::Demo3("http://www.hao123.com")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test::Demo("Steps01","Steps01")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +166,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,10 +252,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,32 +589,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>13</v>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -644,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -652,42 +634,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -697,23 +659,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="42.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -730,110 +692,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="42.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>